--- a/Documenten/Productbacklog/productbacklog.xlsx
+++ b/Documenten/Productbacklog/productbacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/Productbacklog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2A7EF1-F555-44DC-B5F1-7E89F6C9D2B8}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC3B030-F47C-4A5F-A055-8061FAF348F3}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,18 +277,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -306,15 +287,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,10 +307,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,37 +319,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
+  <cellStyles count="4">
     <cellStyle name="Goed" xfId="3" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
@@ -689,7 +654,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,19 +713,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -806,7 +771,7 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -827,7 +792,7 @@
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -848,7 +813,7 @@
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -859,19 +824,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -892,7 +857,7 @@
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -934,7 +899,7 @@
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -942,14 +907,14 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">

--- a/Documenten/Productbacklog/productbacklog.xlsx
+++ b/Documenten/Productbacklog/productbacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrnl-my.sharepoint.com/personal/0987057_hr_nl/Documents/2021 Technische informatica 2/Project-5-6/Documenten/Productbacklog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC3B030-F47C-4A5F-A055-8061FAF348F3}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{C8EFED4C-861F-4D9A-A52C-382DCF3D3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA565240-57C6-405B-9006-D8F0CAB32005}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{AB4C6EDC-C71E-401F-AB46-2C9C4233DE0F}"/>
   </bookViews>
@@ -293,7 +293,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -302,22 +302,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,13 +314,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -653,17 +641,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F508F-C923-4D8C-A0DD-EFAC01E2C0D1}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="70.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
@@ -672,19 +660,19 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -692,13 +680,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -712,20 +700,20 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -736,19 +724,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -759,19 +747,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -779,20 +767,20 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -801,19 +789,19 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -823,20 +811,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -845,19 +833,19 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -866,19 +854,19 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -887,19 +875,19 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -908,13 +896,13 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -927,99 +915,106 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
@@ -1030,7 +1025,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
@@ -1041,7 +1036,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
@@ -1052,7 +1047,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
@@ -1063,7 +1058,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
@@ -1074,7 +1069,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
@@ -1085,7 +1080,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
@@ -1096,7 +1091,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
@@ -1107,7 +1102,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
@@ -1118,7 +1113,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
@@ -1129,7 +1124,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
@@ -1140,7 +1135,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
@@ -1151,7 +1146,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
